--- a/inst/extdata/input_files/test5.xlsx
+++ b/inst/extdata/input_files/test5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowde002\Documents\quicR\inst\extdata\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6012EC-90CD-436F-B602-8019C18718C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C19A6A-ED79-42B7-A883-13CBBE01D9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,9 +403,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>3. Raw Data  (448-10/482-10)</t>
-  </si>
-  <si>
     <t>Freezer</t>
   </si>
   <si>
@@ -443,6 +440,9 @@
   </si>
   <si>
     <t>ID1: 20240305</t>
+  </si>
+  <si>
+    <t>1. Raw Data  (448-10/482-10)</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1489,40 +1489,40 @@
         <v>117</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="L27" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1530,40 +1530,40 @@
         <v>118</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="12" t="s">
+      <c r="K28" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="L28" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1571,40 +1571,40 @@
         <v>119</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="12" t="s">
+      <c r="K29" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="L29" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1612,40 +1612,40 @@
         <v>120</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="H30" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="12" t="s">
+      <c r="K30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="L30" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1653,40 +1653,40 @@
         <v>121</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="H31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" s="12" t="s">
+      <c r="K31" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="L31" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1694,40 +1694,40 @@
         <v>122</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="H32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J32" s="12" t="s">
+      <c r="K32" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="L32" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1735,40 +1735,40 @@
         <v>123</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="H33" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" s="12" t="s">
+      <c r="K33" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="L33" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1776,45 +1776,45 @@
         <v>124</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="G34" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="H34" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" s="15" t="s">
+      <c r="K34" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="L34" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1860,40 +1860,40 @@
         <v>117</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="L38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="M38" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -1901,40 +1901,40 @@
         <v>118</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="G39" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="H39" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="I39" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="J39" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="K39" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="L39" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="M39" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,40 +1942,40 @@
         <v>119</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="G40" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="H40" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="I40" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="J40" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="K40" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="L40" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="M40" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L40" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -1983,40 +1983,40 @@
         <v>120</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="G41" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="H41" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="I41" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="J41" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="K41" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="L41" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="M41" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2024,40 +2024,40 @@
         <v>121</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="G42" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="H42" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="I42" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="J42" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="K42" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="L42" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="M42" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="M42" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2065,40 +2065,40 @@
         <v>122</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="G43" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="H43" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="I43" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="J43" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="K43" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="L43" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="M43" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L43" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2106,40 +2106,40 @@
         <v>123</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="G44" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="H44" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="I44" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="J44" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="K44" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="L44" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="M44" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2147,45 +2147,45 @@
         <v>124</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="G45" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="H45" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="I45" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="J45" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="K45" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="L45" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="M45" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2605,7 +2605,7 @@
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.25">
